--- a/INTLINE/data/144/SCB/IndLev2005M.xlsx
+++ b/INTLINE/data/144/SCB/IndLev2005M.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <x:si>
     <x:t>Turnover in industry, constant prices, calendar adjusted and seasonally adjusted,2005=100 by market, industrial classification NACE Rev. 2 and month</x:t>
   </x:si>
@@ -521,6 +521,15 @@
   </x:si>
   <x:si>
     <x:t>jeongwon.kim@scb.se</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lovisa Hertzman, Statistics Sweden</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> +46 010-479 40 73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lovisa.hertzman@scb.se</x:t>
   </x:si>
   <x:si>
     <x:t>Units:</x:t>
@@ -949,7 +958,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FB42"/>
+  <x:dimension ref="A1:FB46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2430,18 +2439,18 @@
         <x:v>168</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:158">
-      <x:c r="A23" s="0" t="s">
+    <x:row r="20" spans="1:158">
+      <x:c r="A20" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:158">
-      <x:c r="A24" s="0" t="s">
+    <x:row r="21" spans="1:158">
+      <x:c r="A21" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:158">
-      <x:c r="A26" s="0" t="s">
+    <x:row r="22" spans="1:158">
+      <x:c r="A22" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
     </x:row>
@@ -2450,44 +2459,59 @@
         <x:v>172</x:v>
       </x:c>
     </x:row>
+    <x:row r="28" spans="1:158">
+      <x:c r="A28" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
     <x:row r="30" spans="1:158">
       <x:c r="A30" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:158">
       <x:c r="A31" s="0" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:158">
-      <x:c r="A33" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:158">
-      <x:c r="A36" s="0" t="s">
+    <x:row r="34" spans="1:158">
+      <x:c r="A34" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:158">
-      <x:c r="A38" s="0" t="s">
+    <x:row r="35" spans="1:158">
+      <x:c r="A35" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:158">
-      <x:c r="A39" s="0" t="s">
+    <x:row r="37" spans="1:158">
+      <x:c r="A37" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:158">
-      <x:c r="A41" s="0" t="s">
+    <x:row r="40" spans="1:158">
+      <x:c r="A40" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:158">
       <x:c r="A42" s="0" t="s">
         <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:158">
+      <x:c r="A43" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:158">
+      <x:c r="A45" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:158">
+      <x:c r="A46" s="0" t="s">
+        <x:v>183</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
